--- a/assignment1/results/dt.xlsx
+++ b/assignment1/results/dt.xlsx
@@ -555,61 +555,61 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7366666666666667</v>
+        <v>0.63</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7523809523809524</v>
+        <v>0.7064220183486238</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7669902912621359</v>
+        <v>0.7475728155339806</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7596153846153846</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7325581395348837</v>
+        <v>0.4712643678160919</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7325581395348837</v>
+        <v>0.4767441860465116</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7325581395348836</v>
+        <v>0.4739884393063584</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7156862745098039</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.776595744680851</v>
+        <v>0.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7448979591836735</v>
+        <v>0.4947368421052632</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5980392156862745</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5980392156862745</v>
+        <v>0.5784313725490197</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5980392156862745</v>
+        <v>0.6020408163265305</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8090909090909091</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8053097345132744</v>
+        <v>0.7876106194690266</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8625592417061613</v>
+        <v>0.7982062780269057</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7009345794392523</v>
+        <v>0.625</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.6372549019607843</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7177033492822967</v>
+        <v>0.6310679611650485</v>
       </c>
     </row>
     <row r="3">
@@ -627,61 +627,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7466666666666667</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7711864406779662</v>
+        <v>0.7920792079207921</v>
       </c>
       <c r="F3" t="n">
-        <v>0.883495145631068</v>
+        <v>0.7766990291262136</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7159090909090909</v>
+        <v>0.5625</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7325581395348837</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7241379310344829</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7628865979381443</v>
+        <v>0.4854368932038835</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7872340425531915</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="M3" t="n">
-        <v>0.774869109947644</v>
+        <v>0.5076142131979696</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.5784313725490197</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.5728155339805826</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.8272727272727273</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7787610619469026</v>
+        <v>0.8053097345132744</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8186046511627907</v>
+        <v>0.8161434977578476</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6974358974358974</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="4">
@@ -699,61 +699,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.795</v>
+        <v>0.6366666666666667</v>
       </c>
       <c r="E4" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7572815533980582</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7609756097560975</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6046511627906976</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5473684210526316</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5425531914893617</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.5257731958762887</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.5686274509803921</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.5742574257425743</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.8365384615384616</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.8446601941747572</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8405797101449275</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7619047619047619</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.7441860465116279</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7529411764705882</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.8617021276595744</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.839378238341969</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.6440677966101694</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.7450980392156863</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.6909090909090908</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.9056603773584906</v>
-      </c>
       <c r="R4" t="n">
-        <v>0.8495575221238938</v>
+        <v>0.7699115044247787</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8767123287671234</v>
+        <v>0.8018433179723502</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8202247191011236</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7156862745098039</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7643979057591622</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -771,61 +771,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.6533333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.7706422018348624</v>
       </c>
       <c r="F5" t="n">
         <v>0.8155339805825242</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8195121951219512</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7613636363636364</v>
+        <v>0.5092592592592593</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7790697674418605</v>
+        <v>0.6395348837209303</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7701149425287357</v>
+        <v>0.5670103092783505</v>
       </c>
       <c r="K5" t="n">
-        <v>0.79</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8404255319148937</v>
+        <v>0.5</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8144329896907218</v>
+        <v>0.4973544973544973</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6238532110091743</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6445497630331752</v>
+        <v>0.5979381443298969</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8378378378378378</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8230088495575221</v>
+        <v>0.7256637168141593</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8303571428571428</v>
+        <v>0.7772511848341233</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="V5" t="n">
-        <v>0.71875</v>
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
